--- a/Logboek/Logboek technische progressie.xlsx
+++ b/Logboek/Logboek technische progressie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\31613\Documents\Leerjaar 2\Periode 2.2\Radicale kunstspeeltuin\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678791F9-1A06-4B0A-9ADB-799ADA65FB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFA9328-8DFE-4436-B499-9ECF5CB021B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D1667225-B0DF-4400-BBEA-B6543560BCC0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Wie</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>1/12/2021  13:15 - 15:45</t>
+  </si>
+  <si>
+    <t>Ik ga een Raspberry PI halen, ook gaan we werken met geluid, muziek en schermen.</t>
   </si>
 </sst>
 </file>
@@ -266,6 +269,33 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -346,33 +376,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -691,504 +694,506 @@
   <dimension ref="B2:AA27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14:W17"/>
+      <selection activeCell="K5" sqref="K5:W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="35"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="8"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="38"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="11"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="30" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="30" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="30" t="s">
+      <c r="I5" s="4"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="32"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="5"/>
     </row>
     <row r="6" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="3" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="3" t="s">
+      <c r="F6" s="13"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="12" t="s">
+      <c r="I6" s="13"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="14"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="23"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="17"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="26"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="17"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="26"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B9" s="27"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="20"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="29"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="3" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="3" t="s">
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="12" t="s">
+      <c r="I10" s="13"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="14"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="23"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="17"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="26"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="17"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="26"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="20"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="29"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="3" t="s">
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="3" t="s">
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="14"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="23"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="17"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="26"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="17"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="26"/>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="20"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="29"/>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="3" t="s">
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="3" t="s">
+      <c r="F18" s="13"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="14"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="23"/>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="17"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="26"/>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="17"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="26"/>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="20"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="29"/>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.3">
       <c r="N26" s="1"/>
@@ -1224,11 +1229,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:W5"/>
-    <mergeCell ref="B2:W3"/>
     <mergeCell ref="H18:J21"/>
     <mergeCell ref="K18:W21"/>
     <mergeCell ref="B6:D9"/>
@@ -1245,6 +1245,11 @@
     <mergeCell ref="K14:W17"/>
     <mergeCell ref="B18:D21"/>
     <mergeCell ref="E18:G21"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:W5"/>
+    <mergeCell ref="B2:W3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Logboek/Logboek technische progressie.xlsx
+++ b/Logboek/Logboek technische progressie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\31613\Documents\Leerjaar 2\Periode 2.2\Radicale kunstspeeltuin\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFA9328-8DFE-4436-B499-9ECF5CB021B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5476B8C6-8788-43EA-8BB3-F609240CFCC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D1667225-B0DF-4400-BBEA-B6543560BCC0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Wie</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Ik ga een Raspberry PI halen, ook gaan we werken met geluid, muziek en schermen.</t>
+  </si>
+  <si>
+    <t>2/12/2021  09:00 - 15:45</t>
   </si>
 </sst>
 </file>
@@ -269,6 +272,87 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -295,87 +379,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -694,506 +697,608 @@
   <dimension ref="B2:AA27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:W5"/>
+      <selection activeCell="K22" sqref="K22:W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="8"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="35"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="11"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="38"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="3" t="s">
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="3" t="s">
+      <c r="F5" s="31"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="3" t="s">
+      <c r="I5" s="31"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="5"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="32"/>
     </row>
     <row r="6" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="12" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="12" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="21" t="s">
+      <c r="I6" s="4"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="23"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="14"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B7" s="33"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="26"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="17"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="26"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="17"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B9" s="36"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="29"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="20"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="12" t="s">
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="12" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="21" t="s">
+      <c r="I10" s="4"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="23"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="14"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="26"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="17"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B12" s="33"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="26"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="17"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B13" s="36"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="29"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="20"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="12" t="s">
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="12" t="s">
+      <c r="F14" s="4"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="21" t="s">
+      <c r="I14" s="4"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="23"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="14"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="26"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="17"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="26"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="17"/>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B17" s="36"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="29"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="20"/>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="12" t="s">
+      <c r="C18" s="22"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="12" t="s">
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="23"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="14"/>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B19" s="33"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="26"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="17"/>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B20" s="33"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="26"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="17"/>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B21" s="36"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="29"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="20"/>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B22" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="14"/>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="17"/>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="17"/>
+    </row>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="20"/>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.3">
       <c r="N26" s="1"/>
@@ -1228,7 +1333,16 @@
       <c r="AA27" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="25">
+    <mergeCell ref="B22:D25"/>
+    <mergeCell ref="E22:G25"/>
+    <mergeCell ref="H22:J25"/>
+    <mergeCell ref="K22:W25"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:W5"/>
+    <mergeCell ref="B2:W3"/>
     <mergeCell ref="H18:J21"/>
     <mergeCell ref="K18:W21"/>
     <mergeCell ref="B6:D9"/>
@@ -1245,11 +1359,6 @@
     <mergeCell ref="K14:W17"/>
     <mergeCell ref="B18:D21"/>
     <mergeCell ref="E18:G21"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:W5"/>
-    <mergeCell ref="B2:W3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Logboek/Logboek technische progressie.xlsx
+++ b/Logboek/Logboek technische progressie.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\31613\Documents\Leerjaar 2\Periode 2.2\Radicale kunstspeeltuin\Logboek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\31613\Documents\Mediacollege Amsterdam\Leerjaar 2\Periode 2.2\Radicale kunstspeeltuin\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5476B8C6-8788-43EA-8BB3-F609240CFCC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12666FC9-9AB5-4EC5-AF0E-62D2EAC86E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D1667225-B0DF-4400-BBEA-B6543560BCC0}"/>
   </bookViews>
@@ -272,6 +272,33 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -324,33 +351,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -697,7 +697,7 @@
   <dimension ref="B2:AA27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22:W25"/>
+      <selection activeCell="K18" sqref="K18:W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -785,520 +785,520 @@
       <c r="W5" s="32"/>
     </row>
     <row r="6" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="3" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="3" t="s">
+      <c r="F6" s="13"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="12" t="s">
+      <c r="I6" s="13"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="14"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="23"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="17"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="26"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="17"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="26"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B9" s="27"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="20"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="29"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="3" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="3" t="s">
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="12" t="s">
+      <c r="I10" s="13"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="14"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="23"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="17"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="26"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="17"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="26"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="20"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="29"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="3" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="3" t="s">
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="12" t="s">
+      <c r="I14" s="13"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="14"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="23"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="17"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="26"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="17"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="26"/>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="20"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="29"/>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="3" t="s">
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="3" t="s">
+      <c r="F18" s="13"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="14"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="23"/>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="17"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="26"/>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="17"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="26"/>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="20"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="29"/>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="3" t="s">
+      <c r="C22" s="4"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="3" t="s">
+      <c r="F22" s="13"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="14"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="23"/>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="17"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="26"/>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="17"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="26"/>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B25" s="27"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="20"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="29"/>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.3">
       <c r="N26" s="1"/>
@@ -1334,14 +1334,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B22:D25"/>
-    <mergeCell ref="E22:G25"/>
-    <mergeCell ref="H22:J25"/>
-    <mergeCell ref="K22:W25"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:W5"/>
     <mergeCell ref="B2:W3"/>
     <mergeCell ref="H18:J21"/>
     <mergeCell ref="K18:W21"/>
@@ -1358,6 +1350,14 @@
     <mergeCell ref="H14:J17"/>
     <mergeCell ref="K14:W17"/>
     <mergeCell ref="B18:D21"/>
+    <mergeCell ref="B22:D25"/>
+    <mergeCell ref="E22:G25"/>
+    <mergeCell ref="H22:J25"/>
+    <mergeCell ref="K22:W25"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:W5"/>
     <mergeCell ref="E18:G21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Logboek/Logboek technische progressie.xlsx
+++ b/Logboek/Logboek technische progressie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\31613\Documents\Mediacollege Amsterdam\Leerjaar 2\Periode 2.2\Radicale kunstspeeltuin\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12666FC9-9AB5-4EC5-AF0E-62D2EAC86E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9C9EA0-3718-4D50-BDC9-40DF5BEC538B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D1667225-B0DF-4400-BBEA-B6543560BCC0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Wie</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>2/12/2021  09:00 - 15:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ik heb Flutter geinstaleerd voor de app die we gaan maken. Met Ed heb ik een sensor gehaald voor het project. </t>
   </si>
 </sst>
 </file>
@@ -272,6 +275,78 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -299,60 +374,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -360,24 +381,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -697,608 +700,610 @@
   <dimension ref="B2:AA27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18:W21"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="35"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="5"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="38"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="8"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="30" t="s">
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="30" t="s">
+      <c r="F5" s="37"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="30" t="s">
+      <c r="I5" s="37"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="32"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="38"/>
     </row>
     <row r="6" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="12" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="12" t="s">
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="21" t="s">
+      <c r="I6" s="10"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="23"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="20"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="26"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="23"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="26"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="23"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="29"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="26"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="12" t="s">
+      <c r="C10" s="28"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="12" t="s">
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="21" t="s">
+      <c r="I10" s="10"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="23"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="20"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="26"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="23"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="26"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="23"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="29"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="26"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="12" t="s">
+      <c r="C14" s="28"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="12" t="s">
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="21" t="s">
+      <c r="I14" s="10"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="23"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="20"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="26"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="23"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="26"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="23"/>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="29"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="26"/>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="12" t="s">
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="12" t="s">
+      <c r="F18" s="10"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="23"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="20"/>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="26"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="23"/>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="26"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="23"/>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="29"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="26"/>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="12" t="s">
+      <c r="C22" s="28"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="12" t="s">
+      <c r="F22" s="10"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="23"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="20"/>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="25"/>
-      <c r="W23" s="26"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="23"/>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="26"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="23"/>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="29"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="26"/>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.3">
       <c r="N26" s="1"/>
@@ -1334,6 +1339,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B22:D25"/>
+    <mergeCell ref="E22:G25"/>
+    <mergeCell ref="H22:J25"/>
+    <mergeCell ref="K22:W25"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:W5"/>
+    <mergeCell ref="E18:G21"/>
     <mergeCell ref="B2:W3"/>
     <mergeCell ref="H18:J21"/>
     <mergeCell ref="K18:W21"/>
@@ -1350,15 +1364,6 @@
     <mergeCell ref="H14:J17"/>
     <mergeCell ref="K14:W17"/>
     <mergeCell ref="B18:D21"/>
-    <mergeCell ref="B22:D25"/>
-    <mergeCell ref="E22:G25"/>
-    <mergeCell ref="H22:J25"/>
-    <mergeCell ref="K22:W25"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:W5"/>
-    <mergeCell ref="E18:G21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
